--- a/resources/API-Workbook.xlsx
+++ b/resources/API-Workbook.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD44E456-F1D8-41CD-AE2D-2F6F73608F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpagadak\Desktop\pega-dx\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF973F-02A1-41EA-9F04-93BC089C8B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Scenario</t>
   </si>
@@ -61,12 +66,6 @@
     <t>Dependent On</t>
   </si>
   <si>
-    <t>Create Case</t>
-  </si>
-  <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/cases</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -76,83 +75,74 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>Create Case.json</t>
-  </si>
-  <si>
-    <t>Get Attachment Id</t>
-  </si>
-  <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/attachments/upload</t>
-  </si>
-  <si>
-    <t>Form Data</t>
-  </si>
-  <si>
-    <t>C:\Users\mpagadakula\Documents\Pega DIX - Test Documents\Passport_App_Form_V1.0</t>
-  </si>
-  <si>
-    <t>Upload Attachement to Case</t>
-  </si>
-  <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/cases/{id}/attachments</t>
-  </si>
-  <si>
-    <t>Upload Attachment to Case.json</t>
-  </si>
-  <si>
-    <t>id={caseId}</t>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mpagadak</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>Create Request.json</t>
+  </si>
+  <si>
+    <t>Create Request</t>
+  </si>
+  <si>
+    <t>Get Order Details</t>
+  </si>
+  <si>
+    <t>id={orderId}</t>
+  </si>
+  <si>
+    <t>/fulfillment/v1/fulfillmentOrders////</t>
+  </si>
+  <si>
+    <t>/v1/cases/CSC-CLS-FULFILLMENT-WORK {id}</t>
+  </si>
+  <si>
+    <t>UCC Search - True</t>
+  </si>
+  <si>
+    <t>/v1/assignments/ASSIGN-WORKBASKET CSC-CLS-FULFILLMENT-WORK {id}!SEARCH</t>
+  </si>
+  <si>
+    <t>actionID=CompleteSearch</t>
+  </si>
+  <si>
+    <t>id={groupId}</t>
+  </si>
+  <si>
+    <t>UCC Search - True.json</t>
   </si>
   <si>
     <t>Get Case Details</t>
   </si>
   <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/cases/{id}</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>Get Case Action Id</t>
-  </si>
-  <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/cases/{id}/actions/CasewideLocalActions1</t>
-  </si>
-  <si>
-    <t>Perform Assignment Action</t>
-  </si>
-  <si>
-    <t>https://evoketechnologies01.pegalabs.io/prweb/api/v1/assignments/ASSIGN-WORKLIST {id}!CREATEFORM_DEFAULT</t>
-  </si>
-  <si>
-    <t>Perform Assignment Action.json</t>
-  </si>
-  <si>
-    <t>actionID=SelectTypeOfPassport_1</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>PassportOperator1</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Update@123456</t>
+    <t>UCC Search - False</t>
+  </si>
+  <si>
+    <t>UCC Search - False.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,19 +159,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,53 +236,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,207 +733,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="43.5">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="I6" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{AD95EC1F-725B-4317-8D2C-90B4B7A87D00}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{B108F3D0-AD17-48B5-86A1-BFD1DE9B1FFD}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{C4D8FEAF-7E31-4B2C-8125-4E9081D32AE5}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{5795F0E5-D4B1-46C2-BD77-811D5746CF96}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{B7EBE190-A380-4E29-BE0F-D1024C7FFE75}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{8247AE0D-D887-4560-A159-53B0B7464BB4}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://ifulfill-dev.cscglobal.com/prweb/api/v1/cases/CSC-CLS-FULFILLMENT-WORK {id}" xr:uid="{02880EB8-BE66-4F37-831D-83F753BE8087}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -813,46 +910,47 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="test.user@example.com" xr:uid="{D033D3A7-F3B4-4CF7-BD2F-1D33DC3D91E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>